--- a/data/trans_orig/P6903-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27EDCE89-BC30-402F-816B-2C9FD92A49F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4F6133F-D584-466E-B349-2CBDE94F9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE5FC19E-D171-43A8-9F24-0EA24C45474E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED51A2E7-72A7-42AE-A646-B0104AF6319D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,1831 +77,1789 @@
     <t>40,08%</t>
   </si>
   <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
     <t>25,21%</t>
   </si>
   <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
   </si>
   <si>
     <t>32,36%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
   </si>
   <si>
     <t>67,64%</t>
   </si>
   <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>42,55%</t>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>34,61%</t>
   </si>
   <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
   </si>
   <si>
     <t>35,23%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
   </si>
   <si>
     <t>42,66%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
+    <t>48,32%</t>
   </si>
   <si>
     <t>39,0%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>64,77%</t>
   </si>
   <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
+    <t>51,68%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E654AC-C857-4FEC-A152-0DAF0285FE04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207A3875-A93A-45B9-9B37-582462F511BC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3090,10 +3048,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3066,13 @@
         <v>15685</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3123,13 +3081,13 @@
         <v>4951</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3138,13 +3096,13 @@
         <v>20637</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,7 +3158,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3212,13 +3170,13 @@
         <v>17677</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3227,13 +3185,13 @@
         <v>1035</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -3242,13 +3200,13 @@
         <v>18712</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3221,13 @@
         <v>24133</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -3278,13 +3236,13 @@
         <v>13059</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>37</v>
@@ -3293,13 +3251,13 @@
         <v>37191</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,7 +3313,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3367,13 +3325,13 @@
         <v>24884</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -3382,13 +3340,13 @@
         <v>13261</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -3397,13 +3355,13 @@
         <v>38145</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3376,13 @@
         <v>63564</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -3433,13 +3391,13 @@
         <v>30274</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -3448,13 +3406,13 @@
         <v>93838</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3468,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3522,13 +3480,13 @@
         <v>36059</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -3537,13 +3495,13 @@
         <v>24562</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -3552,13 +3510,13 @@
         <v>60620</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3531,13 @@
         <v>72856</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -3588,13 +3546,13 @@
         <v>25224</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
@@ -3603,13 +3561,13 @@
         <v>98081</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3635,13 @@
         <v>149217</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>66</v>
@@ -3692,13 +3650,13 @@
         <v>67753</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>205</v>
@@ -3707,13 +3665,13 @@
         <v>216970</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3686,13 @@
         <v>323088</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>149</v>
@@ -3743,13 +3701,13 @@
         <v>152368</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>460</v>
@@ -3758,13 +3716,13 @@
         <v>475457</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,7 +3778,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CDD276-53F6-4296-A5A5-A09F95046A0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C286A1-107A-4642-B225-29C65DC03C42}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3966,39 +3924,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,39 +3969,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,39 +4014,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4063,13 @@
         <v>18231</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4120,13 +4078,13 @@
         <v>8078</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4135,13 +4093,13 @@
         <v>26309</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4114,13 @@
         <v>38359</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -4171,13 +4129,13 @@
         <v>26237</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -4186,13 +4144,13 @@
         <v>64596</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4218,13 @@
         <v>3703</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4275,13 +4233,13 @@
         <v>4989</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4290,13 +4248,13 @@
         <v>8691</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4269,13 @@
         <v>21602</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4326,13 +4284,13 @@
         <v>12946</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -4341,13 +4299,13 @@
         <v>34549</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4373,13 @@
         <v>23912</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4430,13 +4388,13 @@
         <v>31105</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4445,13 +4403,13 @@
         <v>55017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4424,13 @@
         <v>60442</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -4481,13 +4439,13 @@
         <v>28575</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -4496,13 +4454,13 @@
         <v>89017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4528,13 @@
         <v>923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4585,13 +4543,13 @@
         <v>3990</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4600,13 +4558,13 @@
         <v>4913</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4579,13 @@
         <v>14204</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4636,13 +4594,13 @@
         <v>7671</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -4651,7 +4609,7 @@
         <v>21875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>247</v>
@@ -4713,7 +4671,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4868,7 +4826,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4901,7 +4859,7 @@
         <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -4910,13 +4868,13 @@
         <v>20131</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4889,13 @@
         <v>46216</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -4946,13 +4904,13 @@
         <v>34463</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -4961,13 +4919,13 @@
         <v>80679</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,7 +4981,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5035,13 +4993,13 @@
         <v>14632</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5050,13 +5008,13 @@
         <v>10393</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -5065,13 +5023,13 @@
         <v>25025</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5044,13 @@
         <v>30487</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5101,13 +5059,13 @@
         <v>19129</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -5116,13 +5074,13 @@
         <v>49616</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5148,13 @@
         <v>77275</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -5205,13 +5163,13 @@
         <v>74473</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>142</v>
@@ -5220,13 +5178,13 @@
         <v>151748</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5199,13 @@
         <v>247028</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>128</v>
@@ -5256,28 +5214,28 @@
         <v>140205</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>366</v>
       </c>
       <c r="N29" s="7">
-        <v>387234</v>
+        <v>387233</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,7 +5277,7 @@
         <v>508</v>
       </c>
       <c r="N30" s="7">
-        <v>538982</v>
+        <v>538981</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5333,7 +5291,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5357,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF90E2F-80A8-4F94-9325-961C2229A44A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CF35B7-97DF-42F3-B8B4-66002609D2CD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5374,7 +5332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5481,13 +5439,13 @@
         <v>24925</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5496,13 +5454,13 @@
         <v>19994</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -5511,13 +5469,13 @@
         <v>44919</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5490,13 @@
         <v>33652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -5547,13 +5505,13 @@
         <v>20890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -5562,13 +5520,13 @@
         <v>54542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5594,13 @@
         <v>34425</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5651,13 +5609,13 @@
         <v>25807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -5666,13 +5624,13 @@
         <v>60232</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5645,13 @@
         <v>48361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5702,13 +5660,13 @@
         <v>16890</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
@@ -5717,13 +5675,13 @@
         <v>65251</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5749,13 @@
         <v>4660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5806,13 +5764,13 @@
         <v>1803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5821,13 +5779,13 @@
         <v>6463</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5800,13 @@
         <v>16594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5857,13 +5815,13 @@
         <v>10698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -5872,13 +5830,13 @@
         <v>27292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5904,13 @@
         <v>16094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5961,13 +5919,13 @@
         <v>14586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -5976,13 +5934,13 @@
         <v>30681</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +5955,13 @@
         <v>16371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -6012,13 +5970,13 @@
         <v>15349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -6027,13 +5985,13 @@
         <v>31719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6059,13 @@
         <v>7824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6116,13 +6074,13 @@
         <v>3023</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -6131,13 +6089,13 @@
         <v>10847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>125</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6110,13 @@
         <v>7046</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6167,13 +6125,13 @@
         <v>2748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -6182,13 +6140,13 @@
         <v>9794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>134</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,7 +6202,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6256,13 +6214,13 @@
         <v>9382</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6271,13 +6229,13 @@
         <v>3561</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6286,13 +6244,13 @@
         <v>12943</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6265,13 @@
         <v>13052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6322,13 +6280,13 @@
         <v>3866</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -6337,13 +6295,13 @@
         <v>16917</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,7 +6357,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6411,13 +6369,13 @@
         <v>24817</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -6426,13 +6384,13 @@
         <v>17524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -6441,13 +6399,13 @@
         <v>42341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6420,13 @@
         <v>53525</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -6477,13 +6435,13 @@
         <v>38158</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -6492,13 +6450,13 @@
         <v>91683</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,7 +6512,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6566,13 +6524,13 @@
         <v>13822</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6581,13 +6539,13 @@
         <v>3547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6596,13 +6554,13 @@
         <v>17369</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6575,13 @@
         <v>25452</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>26</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6632,13 +6590,13 @@
         <v>17853</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -6647,13 +6605,13 @@
         <v>43305</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,10 +6682,10 @@
         <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>86</v>
@@ -6736,13 +6694,13 @@
         <v>89846</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>209</v>
@@ -6751,13 +6709,13 @@
         <v>225796</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>332</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,10 +6733,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -6787,13 +6745,13 @@
         <v>126452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>314</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="M29" s="7">
         <v>320</v>
@@ -6802,13 +6760,13 @@
         <v>340503</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,7 +6822,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6888,7 +6846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF8F4F0-F1D2-4423-9F0E-53B0AF3277C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF343-55D1-4C1C-BC55-8DB369707664}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7012,13 +6970,13 @@
         <v>3872</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -7027,13 +6985,13 @@
         <v>3977</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -7042,13 +7000,13 @@
         <v>7850</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7021,13 @@
         <v>16699</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -7078,13 +7036,13 @@
         <v>10866</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -7093,13 +7051,13 @@
         <v>27564</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7125,13 @@
         <v>18469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -7182,13 +7140,13 @@
         <v>21821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -7197,13 +7155,13 @@
         <v>40290</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7176,13 @@
         <v>27532</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -7233,13 +7191,13 @@
         <v>26800</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="M8" s="7">
         <v>51</v>
@@ -7248,13 +7206,13 @@
         <v>54332</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7280,13 @@
         <v>5394</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -7337,13 +7295,13 @@
         <v>13345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -7352,13 +7310,13 @@
         <v>18739</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>302</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>506</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7331,13 @@
         <v>45336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>520</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
@@ -7388,13 +7346,13 @@
         <v>35576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -7403,13 +7361,13 @@
         <v>80912</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>525</v>
+        <v>312</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7435,13 @@
         <v>21531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -7492,13 +7450,13 @@
         <v>32758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>519</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -7507,13 +7465,13 @@
         <v>54288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7486,13 @@
         <v>20603</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -7543,13 +7501,13 @@
         <v>29401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>525</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -7558,13 +7516,13 @@
         <v>50005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,13 +7590,13 @@
         <v>2850</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7647,13 +7605,13 @@
         <v>3235</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7662,13 +7620,13 @@
         <v>6085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>545</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7641,13 @@
         <v>15836</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -7698,13 +7656,13 @@
         <v>8746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -7713,13 +7671,13 @@
         <v>24581</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,7 +7733,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7787,13 +7745,13 @@
         <v>8288</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -7802,13 +7760,13 @@
         <v>8918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7817,13 +7775,13 @@
         <v>17207</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7796,13 @@
         <v>24418</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -7853,13 +7811,13 @@
         <v>23553</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -7868,13 +7826,13 @@
         <v>47970</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,7 +7888,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7942,13 +7900,13 @@
         <v>15576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -7957,13 +7915,13 @@
         <v>29362</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>578</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -7972,13 +7930,13 @@
         <v>44938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +7951,13 @@
         <v>56733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -8008,13 +7966,13 @@
         <v>44989</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>587</v>
+        <v>230</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="M23" s="7">
         <v>111</v>
@@ -8023,13 +7981,13 @@
         <v>101722</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,7 +8043,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8097,13 +8055,13 @@
         <v>47383</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>579</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>316</v>
+        <v>580</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -8112,13 +8070,13 @@
         <v>40372</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>594</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -8127,13 +8085,13 @@
         <v>87754</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8106,13 @@
         <v>19673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>323</v>
+        <v>585</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>587</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -8163,13 +8121,13 @@
         <v>26764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>599</v>
+        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
@@ -8178,13 +8136,13 @@
         <v>46437</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8210,13 @@
         <v>123363</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="H28" s="7">
         <v>197</v>
@@ -8267,13 +8225,13 @@
         <v>153787</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>607</v>
+        <v>553</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="M28" s="7">
         <v>305</v>
@@ -8282,13 +8240,13 @@
         <v>277150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8261,13 @@
         <v>226830</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="H29" s="7">
         <v>276</v>
@@ -8318,13 +8276,13 @@
         <v>206695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>617</v>
+        <v>561</v>
       </c>
       <c r="M29" s="7">
         <v>503</v>
@@ -8333,13 +8291,13 @@
         <v>433525</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,7 +8353,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6903-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4F6133F-D584-466E-B349-2CBDE94F9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED8211F-ECAD-46ED-8CDB-36F6D83F9D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ED51A2E7-72A7-42AE-A646-B0104AF6319D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13319821-1A4B-4F9A-A832-0F1BEDFB95DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,1734 +77,1764 @@
     <t>40,08%</t>
   </si>
   <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
     <t>21,77%</t>
   </si>
   <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>78,23%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
     <t>34,61%</t>
   </si>
   <si>
@@ -1823,9 +1853,6 @@
     <t>40,89%</t>
   </si>
   <si>
-    <t>42,66%</t>
-  </si>
-  <si>
     <t>48,32%</t>
   </si>
   <si>
@@ -1845,9 +1872,6 @@
   </si>
   <si>
     <t>71,23%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
   </si>
   <si>
     <t>51,68%</t>
@@ -2271,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207A3875-A93A-45B9-9B37-582462F511BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBF769D-7CE4-4FA3-A3B4-6B811F238DE2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3048,10 +3072,10 @@
         <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3090,13 @@
         <v>15685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -3081,13 +3105,13 @@
         <v>4951</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -3096,13 +3120,13 @@
         <v>20637</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3182,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3170,13 +3194,13 @@
         <v>17677</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3185,13 +3209,13 @@
         <v>1035</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>17</v>
@@ -3200,13 +3224,13 @@
         <v>18712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3245,13 @@
         <v>24133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -3236,13 +3260,13 @@
         <v>13059</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>37</v>
@@ -3251,13 +3275,13 @@
         <v>37191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3337,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3325,13 +3349,13 @@
         <v>24884</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -3340,13 +3364,13 @@
         <v>13261</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -3355,13 +3379,13 @@
         <v>38145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3400,13 @@
         <v>63564</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -3391,10 +3415,10 @@
         <v>30274</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>137</v>
@@ -3802,7 +3826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C286A1-107A-4642-B225-29C65DC03C42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBA4EBC-1185-47E9-916A-602208AE65E3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4224,7 +4248,7 @@
         <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4233,13 +4257,13 @@
         <v>4989</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4248,13 +4272,13 @@
         <v>8691</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4293,13 @@
         <v>21602</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4284,13 +4308,13 @@
         <v>12946</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -4299,13 +4323,13 @@
         <v>34549</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4397,13 @@
         <v>23912</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4388,13 +4412,13 @@
         <v>31105</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4406,10 +4430,10 @@
         <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4448,13 @@
         <v>60442</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -4439,13 +4463,13 @@
         <v>28575</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -4457,10 +4481,10 @@
         <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4552,13 @@
         <v>923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4543,13 +4567,13 @@
         <v>3990</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4558,13 +4582,13 @@
         <v>4913</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4603,13 @@
         <v>14204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4594,13 +4618,13 @@
         <v>7671</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -4609,13 +4633,13 @@
         <v>21875</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,7 +4695,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4683,13 +4707,13 @@
         <v>7661</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4698,13 +4722,13 @@
         <v>4002</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4713,13 +4737,13 @@
         <v>11662</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4758,13 @@
         <v>35719</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4749,13 +4773,13 @@
         <v>11182</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -4764,13 +4788,13 @@
         <v>46902</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,7 +4850,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4838,13 +4862,13 @@
         <v>8214</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -4853,13 +4877,13 @@
         <v>11917</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -4868,13 +4892,13 @@
         <v>20131</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4913,13 @@
         <v>46216</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -4904,10 +4928,10 @@
         <v>34463</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>279</v>
@@ -5315,7 +5339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91CF35B7-97DF-42F3-B8B4-66002609D2CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48777216-0E04-4715-82C7-CDE7497EE917}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5472,10 +5496,10 @@
         <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5514,13 @@
         <v>33652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -5505,13 +5529,13 @@
         <v>20890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -5520,13 +5544,13 @@
         <v>54542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5618,13 @@
         <v>34425</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5609,13 +5633,13 @@
         <v>25807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -5624,13 +5648,13 @@
         <v>60232</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5669,13 @@
         <v>48361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5660,13 +5684,13 @@
         <v>16890</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
@@ -5675,13 +5699,13 @@
         <v>65251</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5773,13 @@
         <v>4660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5764,13 +5788,13 @@
         <v>1803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5779,13 +5803,13 @@
         <v>6463</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5824,13 @@
         <v>16594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5815,13 +5839,13 @@
         <v>10698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -5830,13 +5854,13 @@
         <v>27292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5928,13 @@
         <v>16094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5919,13 +5943,13 @@
         <v>14586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -5934,13 +5958,13 @@
         <v>30681</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5979,13 @@
         <v>16371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -5970,13 +5994,13 @@
         <v>15349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -5985,13 +6009,13 @@
         <v>31719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6083,13 @@
         <v>7824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6074,13 +6098,13 @@
         <v>3023</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -6089,13 +6113,13 @@
         <v>10847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6134,13 @@
         <v>7046</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6125,13 +6149,13 @@
         <v>2748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -6140,13 +6164,13 @@
         <v>9794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,7 +6226,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6214,13 +6238,13 @@
         <v>9382</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6229,13 +6253,13 @@
         <v>3561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6244,13 +6268,13 @@
         <v>12943</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6289,13 @@
         <v>13052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6280,13 +6304,13 @@
         <v>3866</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -6295,13 +6319,13 @@
         <v>16917</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,7 +6381,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6369,13 +6393,13 @@
         <v>24817</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -6384,13 +6408,13 @@
         <v>17524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -6402,10 +6426,10 @@
         <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>426</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>427</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6444,13 @@
         <v>53525</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -6435,13 +6459,13 @@
         <v>38158</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -6453,10 +6477,10 @@
         <v>169</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,7 +6551,7 @@
         <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>437</v>
@@ -6581,7 +6605,7 @@
         <v>445</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6694,7 +6718,7 @@
         <v>89846</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>454</v>
@@ -6712,10 +6736,10 @@
         <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>332</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,10 +6757,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -6745,13 +6769,13 @@
         <v>126452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M29" s="7">
         <v>320</v>
@@ -6760,13 +6784,13 @@
         <v>340503</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>325</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5EF343-55D1-4C1C-BC55-8DB369707664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F36A5B-E8A5-4BF9-87A2-B9F7D9E56218}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6863,7 +6887,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6970,13 +6994,13 @@
         <v>3872</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -6985,13 +7009,13 @@
         <v>3977</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -7000,13 +7024,13 @@
         <v>7850</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +7045,13 @@
         <v>16699</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -7036,13 +7060,13 @@
         <v>10866</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -7051,13 +7075,13 @@
         <v>27564</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7149,13 @@
         <v>18469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>484</v>
+        <v>391</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -7140,13 +7164,13 @@
         <v>21821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -7155,13 +7179,13 @@
         <v>40290</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7200,13 @@
         <v>27532</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -7286,7 +7310,7 @@
         <v>502</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>503</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -7295,13 +7319,13 @@
         <v>13345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -7310,13 +7334,13 @@
         <v>18739</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>302</v>
+        <v>507</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7355,13 @@
         <v>45336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>511</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
@@ -7346,13 +7370,13 @@
         <v>35576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -7361,13 +7385,13 @@
         <v>80912</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>312</v>
+        <v>516</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,13 +7459,13 @@
         <v>21531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -7450,13 +7474,13 @@
         <v>32758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -7465,13 +7489,13 @@
         <v>54288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,10 +7513,10 @@
         <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -7501,13 +7525,13 @@
         <v>29401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -7516,13 +7540,13 @@
         <v>50005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7614,13 @@
         <v>2850</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7605,13 +7629,13 @@
         <v>3235</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7620,13 +7644,13 @@
         <v>6085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>539</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7665,13 @@
         <v>15836</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -7656,13 +7680,13 @@
         <v>8746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -7671,13 +7695,13 @@
         <v>24581</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>548</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,7 +7757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7745,13 +7769,13 @@
         <v>8288</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -7760,13 +7784,13 @@
         <v>8918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7775,13 +7799,13 @@
         <v>17207</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7820,13 @@
         <v>24418</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -7811,13 +7835,13 @@
         <v>23553</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -7826,13 +7850,13 @@
         <v>47970</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,7 +7912,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7900,13 +7924,13 @@
         <v>15576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -7915,13 +7939,13 @@
         <v>29362</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>572</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -7930,13 +7954,13 @@
         <v>44938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7975,13 @@
         <v>56733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -7966,13 +7990,13 @@
         <v>44989</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>581</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>111</v>
@@ -7981,13 +8005,13 @@
         <v>101722</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,13 +8079,13 @@
         <v>47383</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -8070,13 +8094,13 @@
         <v>40372</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>590</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -8085,13 +8109,13 @@
         <v>87754</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8130,13 @@
         <v>19673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -8124,10 +8148,10 @@
         <v>456</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>597</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
@@ -8136,13 +8160,13 @@
         <v>46437</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8210,13 +8234,13 @@
         <v>123363</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="H28" s="7">
         <v>197</v>
@@ -8225,13 +8249,13 @@
         <v>153787</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>594</v>
+        <v>354</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="M28" s="7">
         <v>305</v>
@@ -8240,13 +8264,13 @@
         <v>277150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,13 +8285,13 @@
         <v>226830</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="H29" s="7">
         <v>276</v>
@@ -8276,13 +8300,13 @@
         <v>206695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>602</v>
+        <v>346</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="M29" s="7">
         <v>503</v>
@@ -8291,13 +8315,13 @@
         <v>433525</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6903-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ED8211F-ECAD-46ED-8CDB-36F6D83F9D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E484DA-6D19-42B1-8E73-80D5E850A060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{13319821-1A4B-4F9A-A832-0F1BEDFB95DC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C184F5D3-E252-4839-B6F2-5F7B219AA3EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,1819 +71,1837 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>40,08%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>21,43%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
   </si>
   <si>
     <t>58,46%</t>
   </si>
   <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
   </si>
   <si>
     <t>89,06%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>60,89%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBF769D-7CE4-4FA3-A3B4-6B811F238DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8F0EC1-B312-492A-91BD-20D4DDDCE66D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3370,7 +3388,7 @@
         <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>38</v>
@@ -3379,13 +3397,13 @@
         <v>38145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3418,13 @@
         <v>63564</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -3415,13 +3433,13 @@
         <v>30274</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>89</v>
@@ -3430,13 +3448,13 @@
         <v>93838</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,7 +3510,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3504,13 +3522,13 @@
         <v>36059</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -3519,13 +3537,13 @@
         <v>24562</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -3534,13 +3552,13 @@
         <v>60620</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3573,13 @@
         <v>72856</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -3570,13 +3588,13 @@
         <v>25224</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>98</v>
@@ -3585,13 +3603,13 @@
         <v>98081</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3677,13 @@
         <v>149217</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>66</v>
@@ -3674,13 +3692,13 @@
         <v>67753</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>205</v>
@@ -3689,13 +3707,13 @@
         <v>216970</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3728,13 @@
         <v>323088</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>149</v>
@@ -3725,13 +3743,13 @@
         <v>152368</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>460</v>
@@ -3740,13 +3758,13 @@
         <v>475457</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3802,7 +3820,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBA4EBC-1185-47E9-916A-602208AE65E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23FA73C-60DD-4614-B7A2-2423DEB57708}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3843,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3948,39 +3966,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,39 +4011,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,39 +4056,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4105,13 @@
         <v>18231</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4102,13 +4120,13 @@
         <v>8078</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4117,13 +4135,13 @@
         <v>26309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4156,13 @@
         <v>38359</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -4153,13 +4171,13 @@
         <v>26237</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -4168,13 +4186,13 @@
         <v>64596</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4242,13 +4260,13 @@
         <v>3703</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4257,13 +4275,13 @@
         <v>4989</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4272,13 +4290,13 @@
         <v>8691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4311,13 @@
         <v>21602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4308,13 +4326,13 @@
         <v>12946</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -4323,13 +4341,13 @@
         <v>34549</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4415,13 @@
         <v>23912</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>28</v>
@@ -4412,13 +4430,13 @@
         <v>31105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -4427,13 +4445,13 @@
         <v>55017</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4466,13 @@
         <v>60442</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -4463,13 +4481,13 @@
         <v>28575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M14" s="7">
         <v>86</v>
@@ -4478,13 +4496,13 @@
         <v>89017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4570,13 @@
         <v>923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4567,13 +4585,13 @@
         <v>3990</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4582,13 +4600,13 @@
         <v>4913</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,10 +4621,10 @@
         <v>14204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>103</v>
@@ -4618,13 +4636,13 @@
         <v>7671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -4633,13 +4651,13 @@
         <v>21875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4725,13 @@
         <v>7661</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4722,13 +4740,13 @@
         <v>4002</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4737,13 +4755,13 @@
         <v>11662</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4776,13 @@
         <v>35719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4773,13 +4791,13 @@
         <v>11182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -4788,13 +4806,13 @@
         <v>46902</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4880,13 @@
         <v>8214</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -4877,13 +4895,13 @@
         <v>11917</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -4892,13 +4910,13 @@
         <v>20131</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4931,13 @@
         <v>46216</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -4928,13 +4946,13 @@
         <v>34463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -4943,13 +4961,13 @@
         <v>80679</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,7 +5023,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5017,13 +5035,13 @@
         <v>14632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5032,13 +5050,13 @@
         <v>10393</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -5047,13 +5065,13 @@
         <v>25025</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5086,13 @@
         <v>30487</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5083,13 +5101,13 @@
         <v>19129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -5098,13 +5116,13 @@
         <v>49616</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5190,13 @@
         <v>77275</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -5187,13 +5205,13 @@
         <v>74473</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>142</v>
@@ -5202,13 +5220,13 @@
         <v>151748</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5241,13 @@
         <v>247028</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>128</v>
@@ -5238,28 +5256,28 @@
         <v>140205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>366</v>
       </c>
       <c r="N29" s="7">
-        <v>387233</v>
+        <v>387234</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,7 +5319,7 @@
         <v>508</v>
       </c>
       <c r="N30" s="7">
-        <v>538981</v>
+        <v>538982</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5315,7 +5333,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5339,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48777216-0E04-4715-82C7-CDE7497EE917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6272FC-D9CA-4EBB-981A-A81221D73855}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5356,7 +5374,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5463,13 +5481,13 @@
         <v>24925</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5478,13 +5496,13 @@
         <v>19994</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -5493,13 +5511,13 @@
         <v>44919</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5532,13 @@
         <v>33652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -5529,13 +5547,13 @@
         <v>20890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -5544,13 +5562,13 @@
         <v>54542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5636,13 @@
         <v>34425</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5633,13 +5651,13 @@
         <v>25807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -5648,13 +5666,13 @@
         <v>60232</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5687,13 @@
         <v>48361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5684,13 +5702,13 @@
         <v>16890</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
@@ -5699,13 +5717,13 @@
         <v>65251</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5791,13 @@
         <v>4660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5788,13 +5806,13 @@
         <v>1803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5803,13 +5821,13 @@
         <v>6463</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5842,13 @@
         <v>16594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5839,10 +5857,10 @@
         <v>10698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>103</v>
@@ -5854,13 +5872,13 @@
         <v>27292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,13 +5946,13 @@
         <v>16094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5943,13 +5961,13 @@
         <v>14586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -5958,13 +5976,13 @@
         <v>30681</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5979,13 +5997,13 @@
         <v>16371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -5994,13 +6012,13 @@
         <v>15349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -6009,13 +6027,13 @@
         <v>31719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6083,13 +6101,13 @@
         <v>7824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6098,13 +6116,13 @@
         <v>3023</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -6113,10 +6131,10 @@
         <v>10847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>398</v>
@@ -6164,13 +6182,13 @@
         <v>9794</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6238,13 +6256,13 @@
         <v>9382</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6253,13 +6271,13 @@
         <v>3561</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6268,13 +6286,13 @@
         <v>12943</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6289,13 +6307,13 @@
         <v>13052</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6304,13 +6322,13 @@
         <v>3866</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -6319,13 +6337,13 @@
         <v>16917</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6441,13 @@
         <v>42341</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>430</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>11</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,13 +6462,13 @@
         <v>53525</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -6459,13 +6477,13 @@
         <v>38158</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -6474,13 +6492,13 @@
         <v>91683</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>193</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,7 +6554,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6548,13 +6566,13 @@
         <v>13822</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>253</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6563,13 +6581,13 @@
         <v>3547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6578,13 +6596,13 @@
         <v>17369</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,13 +6617,13 @@
         <v>25452</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>262</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6614,13 +6632,13 @@
         <v>17853</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -6629,13 +6647,13 @@
         <v>43305</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,10 +6724,10 @@
         <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>86</v>
@@ -6718,13 +6736,13 @@
         <v>89846</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>25</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>209</v>
@@ -6733,13 +6751,13 @@
         <v>225796</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,10 +6775,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -6769,13 +6787,13 @@
         <v>126452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>16</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>320</v>
@@ -6784,13 +6802,13 @@
         <v>340503</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6846,7 +6864,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6870,7 +6888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F36A5B-E8A5-4BF9-87A2-B9F7D9E56218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721B7DFD-1690-42AB-BC01-BA51191FD2CB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6887,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6994,13 +7012,13 @@
         <v>3872</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -7009,13 +7027,13 @@
         <v>3977</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -7024,13 +7042,13 @@
         <v>7850</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7045,13 +7063,13 @@
         <v>16699</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -7060,13 +7078,13 @@
         <v>10866</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
@@ -7075,13 +7093,13 @@
         <v>27564</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7149,13 +7167,13 @@
         <v>18469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>391</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -7164,13 +7182,13 @@
         <v>21821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -7179,13 +7197,13 @@
         <v>40290</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,13 +7218,13 @@
         <v>27532</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -7215,13 +7233,13 @@
         <v>26800</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>51</v>
@@ -7230,13 +7248,13 @@
         <v>54332</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7322,13 @@
         <v>5394</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -7319,13 +7337,13 @@
         <v>13345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -7334,13 +7352,13 @@
         <v>18739</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>508</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7373,13 @@
         <v>45336</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
@@ -7370,13 +7388,13 @@
         <v>35576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -7385,13 +7403,13 @@
         <v>80912</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>518</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7477,13 @@
         <v>21531</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
@@ -7474,13 +7492,13 @@
         <v>32758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>523</v>
+        <v>98</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -7489,13 +7507,13 @@
         <v>54288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7528,13 @@
         <v>20603</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -7525,13 +7543,13 @@
         <v>29401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>529</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
@@ -7540,13 +7558,13 @@
         <v>50005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7632,13 @@
         <v>2850</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7629,13 +7647,13 @@
         <v>3235</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7644,13 +7662,13 @@
         <v>6085</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7683,13 @@
         <v>15836</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -7680,13 +7698,13 @@
         <v>8746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
@@ -7695,13 +7713,13 @@
         <v>24581</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,13 +7787,13 @@
         <v>8288</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -7784,13 +7802,13 @@
         <v>8918</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
@@ -7799,13 +7817,13 @@
         <v>17207</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7820,13 +7838,13 @@
         <v>24418</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
@@ -7835,13 +7853,13 @@
         <v>23553</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
@@ -7850,13 +7868,13 @@
         <v>47970</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7924,13 +7942,13 @@
         <v>15576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -7939,13 +7957,13 @@
         <v>29362</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -7954,13 +7972,13 @@
         <v>44938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7975,13 +7993,13 @@
         <v>56733</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
@@ -7990,13 +8008,13 @@
         <v>44989</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="M23" s="7">
         <v>111</v>
@@ -8005,13 +8023,13 @@
         <v>101722</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,7 +8085,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8079,13 +8097,13 @@
         <v>47383</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>587</v>
+        <v>333</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>588</v>
+        <v>316</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
@@ -8094,13 +8112,13 @@
         <v>40372</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -8109,13 +8127,13 @@
         <v>87754</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,13 +8148,13 @@
         <v>19673</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>594</v>
+        <v>323</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>596</v>
+        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -8145,13 +8163,13 @@
         <v>26764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
@@ -8160,13 +8178,13 @@
         <v>46437</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8252,13 @@
         <v>123363</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H28" s="7">
         <v>197</v>
@@ -8249,13 +8267,13 @@
         <v>153787</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>354</v>
+        <v>606</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>559</v>
+        <v>607</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="M28" s="7">
         <v>305</v>
@@ -8264,13 +8282,13 @@
         <v>277150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8285,13 +8303,13 @@
         <v>226830</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="H29" s="7">
         <v>276</v>
@@ -8300,13 +8318,13 @@
         <v>206695</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>615</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>567</v>
+        <v>617</v>
       </c>
       <c r="M29" s="7">
         <v>503</v>
@@ -8315,13 +8333,13 @@
         <v>433525</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,7 +8395,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6903-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6903-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E484DA-6D19-42B1-8E73-80D5E850A060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E8D1024-6A0D-4869-B771-E848F8CD4714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C184F5D3-E252-4839-B6F2-5F7B219AA3EE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E9275B71-C3AC-4EB7-96A0-2AA6D26BAB0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="644">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -587,7 +587,58 @@
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2012 (Tasa respuesta: 7,81%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
   </si>
   <si>
     <t>32,22%</t>
@@ -698,52 +749,58 @@
     <t>89,11%</t>
   </si>
   <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
   </si>
   <si>
     <t>6,1%</t>
@@ -1370,9 +1427,6 @@
     <t>50,93%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
     <t>4,43%</t>
   </si>
   <si>
@@ -1397,9 +1451,6 @@
     <t>79,66%</t>
   </si>
   <si>
-    <t>83,43%</t>
-  </si>
-  <si>
     <t>58,16%</t>
   </si>
   <si>
@@ -1466,442 +1517,460 @@
     <t>Población según si su trabajo le afecta de manera que se siente agotado a todas horas en 2023 (Tasa respuesta: 9,24%)</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
   </si>
   <si>
     <t>42,66%</t>
   </si>
   <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8F0EC1-B312-492A-91BD-20D4DDDCE66D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EC573E-5E6F-466A-A5C0-D0F2846D4434}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3844,7 +3913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23FA73C-60DD-4614-B7A2-2423DEB57708}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4A586A-4D12-4364-B301-30059DCC28E2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3962,43 +4031,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11732</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="7">
+        <v>17852</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29584</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,43 +4082,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="7">
+        <v>27762</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12293</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="N5" s="7">
+        <v>40055</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,43 +4133,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="7">
+        <v>39494</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I6" s="7">
+        <v>30145</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="N6" s="7">
+        <v>69639</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4192,13 @@
         <v>18231</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4120,13 +4207,13 @@
         <v>8078</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -4135,13 +4222,13 @@
         <v>26309</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4243,13 @@
         <v>38359</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -4171,13 +4258,13 @@
         <v>26237</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>59</v>
@@ -4186,13 +4273,13 @@
         <v>64596</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4347,13 @@
         <v>3703</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -4275,13 +4362,13 @@
         <v>4989</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4290,13 +4377,13 @@
         <v>8691</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4398,13 @@
         <v>21602</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -4326,13 +4413,13 @@
         <v>12946</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -4341,13 +4428,13 @@
         <v>34549</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,49 +4496,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>23912</v>
+        <v>12180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>31105</v>
+        <v>13253</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>55017</v>
+        <v>25433</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,49 +4547,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7">
-        <v>60442</v>
+        <v>32680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>28575</v>
+        <v>16282</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="N14" s="7">
-        <v>89017</v>
+        <v>48962</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,10 +4598,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="D15" s="7">
-        <v>84354</v>
+        <v>44860</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4526,10 +4613,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I15" s="7">
-        <v>59680</v>
+        <v>29535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4541,10 +4628,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="N15" s="7">
-        <v>144034</v>
+        <v>74395</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4570,13 +4657,13 @@
         <v>923</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -4585,13 +4672,13 @@
         <v>3990</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4603,10 +4690,10 @@
         <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,10 +4708,10 @@
         <v>14204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>103</v>
@@ -4636,13 +4723,13 @@
         <v>7671</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -4654,10 +4741,10 @@
         <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4812,13 @@
         <v>7661</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4740,13 +4827,13 @@
         <v>4002</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -4755,13 +4842,13 @@
         <v>11662</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4863,13 @@
         <v>35719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4791,13 +4878,13 @@
         <v>11182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -4806,13 +4893,13 @@
         <v>46902</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4967,13 @@
         <v>8214</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -4895,13 +4982,13 @@
         <v>11917</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -4910,13 +4997,13 @@
         <v>20131</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +5018,13 @@
         <v>46216</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -4946,13 +5033,13 @@
         <v>34463</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>76</v>
@@ -4961,13 +5048,13 @@
         <v>80679</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5122,13 @@
         <v>14632</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5050,13 +5137,13 @@
         <v>10393</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -5065,13 +5152,13 @@
         <v>25025</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5173,13 @@
         <v>30487</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5101,13 +5188,13 @@
         <v>19129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -5116,13 +5203,13 @@
         <v>49616</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5277,13 @@
         <v>77275</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -5205,13 +5292,13 @@
         <v>74473</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>142</v>
@@ -5220,13 +5307,13 @@
         <v>151748</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5328,13 @@
         <v>247028</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>128</v>
@@ -5256,28 +5343,28 @@
         <v>140205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>366</v>
       </c>
       <c r="N29" s="7">
-        <v>387234</v>
+        <v>387233</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,7 +5406,7 @@
         <v>508</v>
       </c>
       <c r="N30" s="7">
-        <v>538982</v>
+        <v>538981</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5357,7 +5444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6272FC-D9CA-4EBB-981A-A81221D73855}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4662E5-B423-40AE-8C3F-2893B9978FC1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5374,7 +5461,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5481,13 +5568,13 @@
         <v>24925</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -5496,13 +5583,13 @@
         <v>19994</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>39</v>
@@ -5511,13 +5598,13 @@
         <v>44919</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5619,13 @@
         <v>33652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -5547,13 +5634,13 @@
         <v>20890</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -5562,13 +5649,13 @@
         <v>54542</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5723,13 @@
         <v>34425</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5651,13 +5738,13 @@
         <v>25807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -5666,13 +5753,13 @@
         <v>60232</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5774,13 @@
         <v>48361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5702,13 +5789,13 @@
         <v>16890</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
@@ -5717,13 +5804,13 @@
         <v>65251</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5878,13 @@
         <v>4660</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5806,13 +5893,13 @@
         <v>1803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5821,13 +5908,13 @@
         <v>6463</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5929,13 @@
         <v>16594</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -5857,10 +5944,10 @@
         <v>10698</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>103</v>
@@ -5872,13 +5959,13 @@
         <v>27292</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +6033,13 @@
         <v>16094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5961,13 +6048,13 @@
         <v>14586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -5976,13 +6063,13 @@
         <v>30681</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6084,13 @@
         <v>16371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -6012,13 +6099,13 @@
         <v>15349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -6027,13 +6114,13 @@
         <v>31719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6188,13 @@
         <v>7824</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -6116,13 +6203,13 @@
         <v>3023</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -6131,13 +6218,13 @@
         <v>10847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6239,13 @@
         <v>7046</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6167,13 +6254,13 @@
         <v>2748</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -6182,10 +6269,10 @@
         <v>9794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>134</v>
@@ -6256,13 +6343,13 @@
         <v>9382</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6271,13 +6358,13 @@
         <v>3561</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -6286,13 +6373,13 @@
         <v>12943</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6394,13 @@
         <v>13052</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6322,13 +6409,13 @@
         <v>3866</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -6337,13 +6424,13 @@
         <v>16917</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6498,13 @@
         <v>24817</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -6426,13 +6513,13 @@
         <v>17524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -6444,10 +6531,10 @@
         <v>162</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6549,13 @@
         <v>53525</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -6477,13 +6564,13 @@
         <v>38158</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -6495,10 +6582,10 @@
         <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6653,13 @@
         <v>13822</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6581,13 +6668,13 @@
         <v>3547</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="M25" s="7">
         <v>17</v>
@@ -6596,13 +6683,13 @@
         <v>17369</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6704,13 @@
         <v>25452</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -6632,13 +6719,13 @@
         <v>17853</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>193</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -6647,13 +6734,13 @@
         <v>43305</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,10 +6811,10 @@
         <v>14</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="H28" s="7">
         <v>86</v>
@@ -6736,13 +6823,13 @@
         <v>89846</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="M28" s="7">
         <v>209</v>
@@ -6751,13 +6838,13 @@
         <v>225796</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,10 +6862,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -6787,13 +6874,13 @@
         <v>126452</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="M29" s="7">
         <v>320</v>
@@ -6802,13 +6889,13 @@
         <v>340503</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,7 +6975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721B7DFD-1690-42AB-BC01-BA51191FD2CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157F7A0B-B540-4BDE-96B0-A7CC4253389B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6992,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7009,46 +7096,46 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>3872</v>
+        <v>4595</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>3977</v>
+        <v>4340</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>7850</v>
+        <v>8936</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,46 +7147,46 @@
         <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>16699</v>
+        <v>19474</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>10866</v>
+        <v>11415</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="M5" s="7">
         <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>27564</v>
+        <v>30888</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7111,7 +7198,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>20571</v>
+        <v>24069</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7126,7 +7213,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>14843</v>
+        <v>15755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7141,7 +7228,7 @@
         <v>58</v>
       </c>
       <c r="N6" s="7">
-        <v>35414</v>
+        <v>39824</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7164,46 +7251,46 @@
         <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>18469</v>
+        <v>18973</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>21821</v>
+        <v>20327</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>40290</v>
+        <v>39300</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,46 +7302,46 @@
         <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>27532</v>
+        <v>27307</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
       </c>
       <c r="I8" s="7">
-        <v>26800</v>
+        <v>25116</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="M8" s="7">
         <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>54332</v>
+        <v>52423</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,7 +7353,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>46001</v>
+        <v>46280</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7281,7 +7368,7 @@
         <v>59</v>
       </c>
       <c r="I9" s="7">
-        <v>48621</v>
+        <v>45443</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7296,7 +7383,7 @@
         <v>91</v>
       </c>
       <c r="N9" s="7">
-        <v>94622</v>
+        <v>91723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7319,46 +7406,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>5394</v>
+        <v>5160</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>13345</v>
+        <v>12496</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>18739</v>
+        <v>17657</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>535</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,46 +7457,46 @@
         <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>45336</v>
+        <v>44335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>35576</v>
+        <v>33430</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>522</v>
+        <v>539</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>523</v>
+        <v>540</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
       </c>
       <c r="N11" s="7">
-        <v>80912</v>
+        <v>77765</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>526</v>
+        <v>420</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7421,7 +7508,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>50730</v>
+        <v>49495</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7436,7 +7523,7 @@
         <v>70</v>
       </c>
       <c r="I12" s="7">
-        <v>48921</v>
+        <v>45926</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7451,7 +7538,7 @@
         <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>99651</v>
+        <v>95422</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7474,46 +7561,46 @@
         <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>21531</v>
+        <v>20511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>528</v>
+        <v>545</v>
       </c>
       <c r="H13" s="7">
         <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>32758</v>
+        <v>29847</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>529</v>
+        <v>546</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>530</v>
+        <v>547</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>98</v>
+        <v>548</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>54288</v>
+        <v>50358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>549</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,46 +7612,46 @@
         <v>16</v>
       </c>
       <c r="D14" s="7">
-        <v>20603</v>
+        <v>19842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>325</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
       </c>
       <c r="I14" s="7">
-        <v>29401</v>
+        <v>50805</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>555</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="M14" s="7">
         <v>40</v>
       </c>
       <c r="N14" s="7">
-        <v>50005</v>
+        <v>70647</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>409</v>
+        <v>557</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,7 +7663,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="7">
-        <v>42134</v>
+        <v>40353</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7591,7 +7678,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="7">
-        <v>62159</v>
+        <v>80652</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7606,7 +7693,7 @@
         <v>97</v>
       </c>
       <c r="N15" s="7">
-        <v>104293</v>
+        <v>121005</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7629,46 +7716,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2850</v>
+        <v>2583</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>3235</v>
+        <v>2926</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>544</v>
+        <v>468</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>6085</v>
+        <v>5509</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,46 +7767,46 @@
         <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>15836</v>
+        <v>14496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>8746</v>
+        <v>8060</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>552</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="M17" s="7">
         <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>24581</v>
+        <v>22556</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,7 +7818,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="7">
-        <v>18686</v>
+        <v>17079</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7746,7 +7833,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>11981</v>
+        <v>10986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7761,7 +7848,7 @@
         <v>54</v>
       </c>
       <c r="N18" s="7">
-        <v>30666</v>
+        <v>28065</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7784,46 +7871,46 @@
         <v>10</v>
       </c>
       <c r="D19" s="7">
-        <v>8288</v>
+        <v>7965</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>8918</v>
+        <v>8412</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
       </c>
       <c r="N19" s="7">
-        <v>17207</v>
+        <v>16377</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,46 +7922,46 @@
         <v>29</v>
       </c>
       <c r="D20" s="7">
-        <v>24418</v>
+        <v>23651</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="H20" s="7">
         <v>35</v>
       </c>
       <c r="I20" s="7">
-        <v>23553</v>
+        <v>21803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="M20" s="7">
         <v>64</v>
       </c>
       <c r="N20" s="7">
-        <v>47970</v>
+        <v>45454</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7886,7 +7973,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>32706</v>
+        <v>31616</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7901,7 +7988,7 @@
         <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>32471</v>
+        <v>30215</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7916,7 +8003,7 @@
         <v>89</v>
       </c>
       <c r="N21" s="7">
-        <v>65177</v>
+        <v>61831</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7939,46 +8026,46 @@
         <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>15576</v>
+        <v>15320</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
       </c>
       <c r="I22" s="7">
-        <v>29362</v>
+        <v>27472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
       </c>
       <c r="N22" s="7">
-        <v>44938</v>
+        <v>42792</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,46 +8077,46 @@
         <v>52</v>
       </c>
       <c r="D23" s="7">
-        <v>56733</v>
+        <v>55886</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="H23" s="7">
         <v>59</v>
       </c>
       <c r="I23" s="7">
-        <v>44989</v>
+        <v>42374</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="M23" s="7">
         <v>111</v>
       </c>
       <c r="N23" s="7">
-        <v>101722</v>
+        <v>98260</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,7 +8128,7 @@
         <v>68</v>
       </c>
       <c r="D24" s="7">
-        <v>72309</v>
+        <v>71206</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8056,7 +8143,7 @@
         <v>102</v>
       </c>
       <c r="I24" s="7">
-        <v>74351</v>
+        <v>69846</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8071,7 +8158,7 @@
         <v>170</v>
       </c>
       <c r="N24" s="7">
-        <v>146660</v>
+        <v>141052</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8094,46 +8181,46 @@
         <v>40</v>
       </c>
       <c r="D25" s="7">
-        <v>47383</v>
+        <v>40077</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>333</v>
+        <v>612</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>316</v>
+        <v>613</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="H25" s="7">
         <v>37</v>
       </c>
       <c r="I25" s="7">
-        <v>40372</v>
+        <v>32393</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>471</v>
+        <v>615</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>99</v>
+        <v>616</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
       </c>
       <c r="N25" s="7">
-        <v>87754</v>
+        <v>72470</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>595</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,46 +8232,46 @@
         <v>17</v>
       </c>
       <c r="D26" s="7">
-        <v>19673</v>
+        <v>16680</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>323</v>
+        <v>620</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>622</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
       </c>
       <c r="I26" s="7">
-        <v>26764</v>
+        <v>22317</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>463</v>
+        <v>623</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>625</v>
       </c>
       <c r="M26" s="7">
         <v>49</v>
       </c>
       <c r="N26" s="7">
-        <v>46437</v>
+        <v>38997</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,7 +8283,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="7">
-        <v>67056</v>
+        <v>56757</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8211,7 +8298,7 @@
         <v>69</v>
       </c>
       <c r="I27" s="7">
-        <v>67136</v>
+        <v>54710</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8226,7 +8313,7 @@
         <v>126</v>
       </c>
       <c r="N27" s="7">
-        <v>134191</v>
+        <v>111467</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8249,46 +8336,46 @@
         <v>108</v>
       </c>
       <c r="D28" s="7">
-        <v>123363</v>
+        <v>115185</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>242</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="H28" s="7">
         <v>197</v>
       </c>
       <c r="I28" s="7">
-        <v>153787</v>
+        <v>138214</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="M28" s="7">
         <v>305</v>
       </c>
       <c r="N28" s="7">
-        <v>277150</v>
+        <v>253399</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,46 +8387,46 @@
         <v>227</v>
       </c>
       <c r="D29" s="7">
-        <v>226830</v>
+        <v>221670</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>612</v>
+        <v>251</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="H29" s="7">
         <v>276</v>
       </c>
       <c r="I29" s="7">
-        <v>206695</v>
+        <v>215320</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>638</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="M29" s="7">
         <v>503</v>
       </c>
       <c r="N29" s="7">
-        <v>433525</v>
+        <v>436990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>619</v>
+        <v>642</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>620</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,7 +8438,7 @@
         <v>335</v>
       </c>
       <c r="D30" s="7">
-        <v>350193</v>
+        <v>336855</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8366,7 +8453,7 @@
         <v>473</v>
       </c>
       <c r="I30" s="7">
-        <v>360482</v>
+        <v>353534</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8381,7 +8468,7 @@
         <v>808</v>
       </c>
       <c r="N30" s="7">
-        <v>710675</v>
+        <v>690389</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
